--- a/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Datetime</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>SOPHY_20220508_170827_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -516,25 +519,25 @@
         <v>0.649327544746326</v>
       </c>
       <c r="J2">
-        <v>0.6120851587187216</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9093508.591399474</v>
+        <v>909350.8591399475</v>
       </c>
       <c r="L2">
-        <v>69.58731481449261</v>
+        <v>59.58731481449262</v>
       </c>
       <c r="M2">
-        <v>14004501.52619361</v>
+        <v>1400450.152619361</v>
       </c>
       <c r="N2">
-        <v>71.46267655231976</v>
-      </c>
-      <c r="O2">
-        <v>22879988.71841501</v>
-      </c>
-      <c r="P2">
-        <v>73.59455805980632</v>
+        <v>61.46267655231976</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -566,25 +569,25 @@
         <v>0.6216151755822268</v>
       </c>
       <c r="J3">
-        <v>0.002037429892370115</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3299695.210096381</v>
+        <v>329969.5210096381</v>
       </c>
       <c r="L3">
-        <v>65.1847382633653</v>
+        <v>55.18473826336531</v>
       </c>
       <c r="M3">
-        <v>5308260.383131363</v>
+        <v>530826.0383131363</v>
       </c>
       <c r="N3">
-        <v>67.24952217919524</v>
-      </c>
-      <c r="O3">
-        <v>2605370816.934631</v>
-      </c>
-      <c r="P3">
-        <v>94.15869544252608</v>
+        <v>57.24952217919524</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -616,25 +619,25 @@
         <v>0.01305997362053452</v>
       </c>
       <c r="J4">
-        <v>1.359499661504603E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2014615.816872801</v>
+        <v>201461.5816872802</v>
       </c>
       <c r="L4">
-        <v>63.04192239300941</v>
+        <v>53.04192239300941</v>
       </c>
       <c r="M4">
-        <v>154258796.7945947</v>
+        <v>15425879.67945947</v>
       </c>
       <c r="N4">
-        <v>81.88249939579947</v>
-      </c>
-      <c r="O4">
-        <v>113467330049844.5</v>
-      </c>
-      <c r="P4">
-        <v>140.5487083578934</v>
+        <v>71.88249939579946</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -666,25 +669,25 @@
         <v>2.974218814131389E-07</v>
       </c>
       <c r="J5">
-        <v>0.02936316608926458</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>12534277.95966301</v>
+        <v>1253427.795966301</v>
       </c>
       <c r="L5">
-        <v>70.98099321368366</v>
+        <v>60.98099321368366</v>
       </c>
       <c r="M5">
-        <v>42143092835365.59</v>
+        <v>4214309283536.56</v>
       </c>
       <c r="N5">
-        <v>136.2472640483742</v>
-      </c>
-      <c r="O5">
-        <v>1435236673976158</v>
-      </c>
-      <c r="P5">
-        <v>151.569235231791</v>
+        <v>126.2472640483742</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Datetime</t>
   </si>
@@ -61,6 +61,24 @@
     <t>C_after_wb [dB]</t>
   </si>
   <si>
+    <t>Theta X bar</t>
+  </si>
+  <si>
+    <t>Theta X</t>
+  </si>
+  <si>
+    <t>Theta Y bar</t>
+  </si>
+  <si>
+    <t>Theta Y</t>
+  </si>
+  <si>
+    <t>Wb x</t>
+  </si>
+  <si>
+    <t>Wb y</t>
+  </si>
+  <si>
     <t>2022-05-08  17:04:29</t>
   </si>
   <si>
@@ -77,9 +95,6 @@
   </si>
   <si>
     <t>SOPHY_20220508_170827_A28.2_S.hdf5</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -437,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,16 +504,34 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>28.2</v>
@@ -519,7 +552,7 @@
         <v>0.649327544746326</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6120851587187216</v>
       </c>
       <c r="K2">
         <v>909350.8591399475</v>
@@ -533,22 +566,40 @@
       <c r="N2">
         <v>61.46267655231976</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
+      <c r="O2">
+        <v>2287998.871841501</v>
+      </c>
+      <c r="P2">
+        <v>63.59455805980632</v>
+      </c>
+      <c r="Q2">
+        <v>28.2</v>
+      </c>
+      <c r="R2">
+        <v>27.446618769481</v>
+      </c>
+      <c r="S2">
+        <v>19.37</v>
+      </c>
+      <c r="T2">
+        <v>19.42949667298815</v>
+      </c>
+      <c r="U2">
+        <v>0.6139502799034432</v>
+      </c>
+      <c r="V2">
+        <v>0.9969620973460344</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>28.2</v>
@@ -569,7 +620,7 @@
         <v>0.6216151755822268</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.002037429892370115</v>
       </c>
       <c r="K3">
         <v>329969.5210096381</v>
@@ -583,22 +634,40 @@
       <c r="N3">
         <v>57.24952217919524</v>
       </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
+      <c r="O3">
+        <v>260537081.6934631</v>
+      </c>
+      <c r="P3">
+        <v>84.15869544252608</v>
+      </c>
+      <c r="Q3">
+        <v>28.2</v>
+      </c>
+      <c r="R3">
+        <v>30.56618017851518</v>
+      </c>
+      <c r="S3">
+        <v>18.17</v>
+      </c>
+      <c r="T3">
+        <v>19.43888095208049</v>
+      </c>
+      <c r="U3">
+        <v>0.008129868060955062</v>
+      </c>
+      <c r="V3">
+        <v>0.2506104498983427</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>28.2</v>
@@ -619,7 +688,7 @@
         <v>0.01305997362053452</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.359499661504603E-06</v>
       </c>
       <c r="K4">
         <v>201461.5816872802</v>
@@ -633,22 +702,40 @@
       <c r="N4">
         <v>71.88249939579946</v>
       </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
+      <c r="O4">
+        <v>11346733004984.46</v>
+      </c>
+      <c r="P4">
+        <v>130.5487083578934</v>
+      </c>
+      <c r="Q4">
+        <v>28.2</v>
+      </c>
+      <c r="R4">
+        <v>24.24303051921956</v>
+      </c>
+      <c r="S4">
+        <v>18.11</v>
+      </c>
+      <c r="T4">
+        <v>17.86740595067994</v>
+      </c>
+      <c r="U4">
+        <v>1.430036951331981E-06</v>
+      </c>
+      <c r="V4">
+        <v>0.9506744984724507</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>28.2</v>
@@ -669,7 +756,7 @@
         <v>2.974218814131389E-07</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02936316608926458</v>
       </c>
       <c r="K5">
         <v>1253427.795966301</v>
@@ -683,11 +770,29 @@
       <c r="N5">
         <v>126.2472640483742</v>
       </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>21</v>
+      <c r="O5">
+        <v>143523667397615.8</v>
+      </c>
+      <c r="P5">
+        <v>141.569235231791</v>
+      </c>
+      <c r="Q5">
+        <v>28.2</v>
+      </c>
+      <c r="R5">
+        <v>28.79073981186849</v>
+      </c>
+      <c r="S5">
+        <v>7.84</v>
+      </c>
+      <c r="T5">
+        <v>5.90203054468841</v>
+      </c>
+      <c r="U5">
+        <v>0.7408590415010113</v>
+      </c>
+      <c r="V5">
+        <v>0.03963394444073136</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Datetime</t>
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
   <si>
     <t>Azimuth</t>
@@ -452,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,276 +528,306 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2">
+        <v>-34.03</v>
+      </c>
+      <c r="E2">
+        <v>0.39</v>
+      </c>
+      <c r="F2">
         <v>28.2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>240</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>235.1210690568552</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.0002975536558366948</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-35.26434709489425</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.649327544746326</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.6120851587187216</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>909350.8591399475</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>59.58731481449262</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1400450.152619361</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>61.46267655231976</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>2287998.871841501</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>63.59455805980632</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>28.2</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>27.446618769481</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>19.37</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>19.42949667298815</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.6139502799034432</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.9969620973460344</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
+        <v>-33.98</v>
+      </c>
+      <c r="E3">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F3">
         <v>28.2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>240</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>234.8805954530872</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.0001084139753212074</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-39.64914730586636</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.6216151755822268</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.002037429892370115</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>329969.5210096381</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>55.18473826336531</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>530826.0383131363</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>57.24952217919524</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>260537081.6934631</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>84.15869544252608</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>28.2</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>30.56618017851518</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>18.17</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>19.43888095208049</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.008129868060955062</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.2506104498983427</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>216.8</v>
+      </c>
+      <c r="F4">
         <v>28.2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>225</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>209.5357363569407</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.0001045104767347891</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-39.80840171179328</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.01305997362053452</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>1.359499661504603E-06</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>201461.5816872802</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>53.04192239300941</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>15425879.67945947</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>71.88249939579946</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>11346733004984.46</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>130.5487083578934</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>28.2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>24.24303051921956</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>18.11</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>17.86740595067994</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>1.430036951331981E-06</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.9506744984724507</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
+        <v>-31.97</v>
+      </c>
+      <c r="E5">
+        <v>13.02</v>
+      </c>
+      <c r="F5">
         <v>28.2</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>195</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>223.7823695502078</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.0004997995363127874</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-33.01204151124517</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2.974218814131389E-07</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.02936316608926458</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1253427.795966301</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>60.98099321368366</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>4214309283536.56</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>126.2472640483742</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>143523667397615.8</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>141.569235231791</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>28.2</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>28.79073981186849</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>7.84</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>5.90203054468841</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.7408590415010113</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.03963394444073136</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Datetime</t>
   </si>
@@ -55,16 +55,22 @@
     <t>C_initial [dB]</t>
   </si>
   <si>
-    <t>C_after</t>
-  </si>
-  <si>
-    <t>C_after [dB]</t>
-  </si>
-  <si>
-    <t>C_after_wb</t>
-  </si>
-  <si>
-    <t>C_after_wb [dB]</t>
+    <t>C_after Wr</t>
+  </si>
+  <si>
+    <t>C_after Wr [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb Only</t>
+  </si>
+  <si>
+    <t>C_after Wb Only [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb</t>
+  </si>
+  <si>
+    <t>C_after Wb [dB]</t>
   </si>
   <si>
     <t>Theta X bar</t>
@@ -458,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,16 +540,22 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>-34.03</v>
@@ -585,39 +597,45 @@
         <v>61.46267655231976</v>
       </c>
       <c r="Q2">
+        <v>1485660.689835206</v>
+      </c>
+      <c r="R2">
+        <v>61.71919632197918</v>
+      </c>
+      <c r="S2">
         <v>2287998.871841501</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>63.59455805980632</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>28.2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>27.446618769481</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>19.37</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>19.42949667298815</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.6139502799034432</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.9969620973460344</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>-33.98</v>
@@ -659,39 +677,45 @@
         <v>57.24952217919524</v>
       </c>
       <c r="Q3">
+        <v>161953803.782563</v>
+      </c>
+      <c r="R3">
+        <v>82.09391152669613</v>
+      </c>
+      <c r="S3">
         <v>260537081.6934631</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>84.15869544252608</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>28.2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>30.56618017851518</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>18.17</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>19.43888095208049</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.008129868060955062</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.2506104498983427</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>0.8</v>
@@ -733,39 +757,45 @@
         <v>71.88249939579946</v>
       </c>
       <c r="Q4">
+        <v>148188033724.3453</v>
+      </c>
+      <c r="R4">
+        <v>111.7081313551034</v>
+      </c>
+      <c r="S4">
         <v>11346733004984.46</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>130.5487083578934</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>28.2</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>24.24303051921956</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>18.11</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>17.86740595067994</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>1.430036951331981E-06</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.9506744984724507</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>-31.97</v>
@@ -807,27 +837,33 @@
         <v>126.2472640483742</v>
       </c>
       <c r="Q5">
+        <v>42687079.18471246</v>
+      </c>
+      <c r="R5">
+        <v>76.30296439710045</v>
+      </c>
+      <c r="S5">
         <v>143523667397615.8</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>141.569235231791</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>28.2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>28.79073981186849</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>7.84</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>5.90203054468841</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.7408590415010113</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.03963394444073136</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Datetime</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Wb y</t>
+  </si>
+  <si>
+    <t>Exp Constant</t>
+  </si>
+  <si>
+    <t>Exp Constant [dB]</t>
   </si>
   <si>
     <t>2022-05-08  17:04:29</t>
@@ -464,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,16 +552,22 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>-34.03</v>
@@ -626,16 +638,22 @@
       <c r="Z2">
         <v>0.9969620973460344</v>
       </c>
+      <c r="AA2">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB2">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>-33.98</v>
@@ -706,16 +724,22 @@
       <c r="Z3">
         <v>0.2506104498983427</v>
       </c>
+      <c r="AA3">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB3">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>0.8</v>
@@ -786,16 +810,22 @@
       <c r="Z4">
         <v>0.9506744984724507</v>
       </c>
+      <c r="AA4">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB4">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>-31.97</v>
@@ -865,6 +895,12 @@
       </c>
       <c r="Z5">
         <v>0.03963394444073136</v>
+      </c>
+      <c r="AA5">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB5">
+        <v>85.85743731821252</v>
       </c>
     </row>
   </sheetData>
